--- a/decision-tables/Wholesale_Retail.xlsx
+++ b/decision-tables/Wholesale_Retail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laroric\Belize\final\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="7488" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Usable_Non_Usable" sheetId="7" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <sheet name="WholesaleRetail4_Sales" sheetId="4" r:id="rId11"/>
     <sheet name="WholesaleRetail4_Cost" sheetId="5" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -875,7 +870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,13 +914,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1268,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1278,20 +1266,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1299,7 +1287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
@@ -1321,14 +1309,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>116</v>
       </c>
@@ -1337,7 +1325,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>117</v>
       </c>
@@ -1358,9 +1346,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1368,7 +1356,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>77</v>
       </c>
@@ -1390,14 +1378,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>78</v>
       </c>
@@ -1406,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>128</v>
       </c>
@@ -1415,7 +1403,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
@@ -1435,9 +1423,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1445,7 +1433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
@@ -1467,14 +1455,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
@@ -1494,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
@@ -1503,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>60</v>
       </c>
@@ -1512,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
@@ -1521,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
@@ -1530,7 +1518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
@@ -1539,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>64</v>
       </c>
@@ -1548,7 +1536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>65</v>
       </c>
@@ -1557,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>66</v>
       </c>
@@ -1566,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>67</v>
       </c>
@@ -1575,7 +1563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>68</v>
       </c>
@@ -1584,7 +1572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
@@ -1593,7 +1581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>70</v>
       </c>
@@ -1602,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
@@ -1611,7 +1599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1620,7 +1608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>73</v>
       </c>
@@ -1629,7 +1617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
@@ -1649,9 +1637,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
+    <col min="1" max="1" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1659,7 +1647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1670,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
@@ -1681,14 +1669,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>129</v>
       </c>
@@ -1699,7 +1687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -1708,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
@@ -1717,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -1726,7 +1714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>46</v>
       </c>
@@ -1735,7 +1723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>47</v>
       </c>
@@ -1744,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
@@ -1753,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
@@ -1762,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1771,7 +1759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -1780,7 +1768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>52</v>
       </c>
@@ -1789,7 +1777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>53</v>
       </c>
@@ -1798,7 +1786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>54</v>
       </c>
@@ -1807,7 +1795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>55</v>
       </c>
@@ -1816,7 +1804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
@@ -1825,7 +1813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>57</v>
       </c>
@@ -1834,7 +1822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>58</v>
       </c>
@@ -1843,7 +1831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>82</v>
       </c>
@@ -1863,9 +1851,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -1873,7 +1861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1884,7 +1872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>89</v>
       </c>
@@ -1895,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>88</v>
       </c>
@@ -1906,14 +1894,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
@@ -1922,7 +1910,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>87</v>
       </c>
@@ -1942,12 +1930,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1955,7 +1943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>101</v>
       </c>
@@ -1989,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>102</v>
       </c>
@@ -2006,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2015,7 +2003,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>103</v>
       </c>
@@ -2026,7 +2014,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>104</v>
       </c>
@@ -2037,7 +2025,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>105</v>
       </c>
@@ -2048,7 +2036,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>118</v>
       </c>
@@ -2059,7 +2047,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>119</v>
       </c>
@@ -2072,7 +2060,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>120</v>
       </c>
@@ -2093,11 +2081,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="1" max="1" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -2105,7 +2095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>107</v>
       </c>
@@ -2127,14 +2117,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>108</v>
       </c>
@@ -2145,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>109</v>
       </c>
@@ -2154,7 +2144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>110</v>
       </c>
@@ -2163,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>111</v>
       </c>
@@ -2172,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
@@ -2181,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>113</v>
       </c>
@@ -2190,7 +2180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>114</v>
       </c>
@@ -2199,7 +2189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>115</v>
       </c>
@@ -2208,7 +2198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>121</v>
       </c>
@@ -2228,11 +2218,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2241,7 +2233,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2252,7 +2244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2263,14 +2255,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>122</v>
       </c>
@@ -2279,7 +2271,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -2288,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -2306,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -2315,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -2324,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
@@ -2333,7 +2325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2342,7 +2334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +2352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -2369,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -2378,7 +2370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -2387,7 +2379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>33</v>
       </c>
@@ -2396,7 +2388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
@@ -2405,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>35</v>
       </c>
@@ -2414,7 +2406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>123</v>
       </c>
@@ -2444,9 +2436,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -2454,7 +2446,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2465,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2476,14 +2468,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
@@ -2492,7 +2484,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
@@ -2501,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -2510,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -2519,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
@@ -2537,7 +2529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +2538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2555,7 +2547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2564,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -2573,7 +2565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
@@ -2591,7 +2583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2600,7 +2592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>19</v>
       </c>
@@ -2627,7 +2619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>20</v>
       </c>
@@ -2636,7 +2628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
@@ -2656,9 +2648,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2667,7 +2659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>95</v>
       </c>
@@ -2689,14 +2681,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>125</v>
       </c>
@@ -2707,7 +2699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>94</v>
       </c>
@@ -2716,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>75</v>
       </c>
@@ -2736,9 +2728,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -2746,7 +2738,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2757,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
@@ -2768,14 +2760,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>126</v>
       </c>
@@ -2786,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -2795,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>74</v>
       </c>
@@ -2815,10 +2807,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
@@ -2826,7 +2818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2837,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
@@ -2848,14 +2840,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>83</v>
       </c>
@@ -2864,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>127</v>
       </c>
@@ -2873,7 +2865,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
